--- a/winter2025/mkt353/mkt353_document_projadwords.xlsx
+++ b/winter2025/mkt353/mkt353_document_projadwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaged\Documents\byui\winter2025\mkt353\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D96AB1-BE20-4B5B-91CB-BFBE757B75B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C22802-F794-43A1-AACE-3665AD276349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-86" yWindow="0" windowWidth="12515" windowHeight="14794" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>Adwords Final Project</t>
   </si>
@@ -881,6 +881,72 @@
   <si>
     <t>ad group 1</t>
   </si>
+  <si>
+    <t>Poor performance</t>
+  </si>
+  <si>
+    <t>I thought I should advertise more desk setup keywords</t>
+  </si>
+  <si>
+    <t>I wanted to target people looking for gaming mice</t>
+  </si>
+  <si>
+    <t>https://gameondesk.com</t>
+  </si>
+  <si>
+    <t>Game On Desk</t>
+  </si>
+  <si>
+    <t>Gaming Keyboards and Mice</t>
+  </si>
+  <si>
+    <t>Desk Organization</t>
+  </si>
+  <si>
+    <t>Upgrade Your Desk</t>
+  </si>
+  <si>
+    <t>RGB Gaming Peripherals</t>
+  </si>
+  <si>
+    <t>Declutter Your Space</t>
+  </si>
+  <si>
+    <t>Cable Management</t>
+  </si>
+  <si>
+    <t>Gaming and Desk Accessories</t>
+  </si>
+  <si>
+    <t>Get all the gaming peripherals you need to win, from mice, keyboards, and more</t>
+  </si>
+  <si>
+    <t>Upgrade your setup with everything you need to stay clean and classy</t>
+  </si>
+  <si>
+    <t>Declutter your space and stay focused on winning with organizers and cable management</t>
+  </si>
+  <si>
+    <t>Stylish and affordable gaming gear for players on a budget</t>
+  </si>
+  <si>
+    <t>Ad Group 1</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>gameondesk.com</t>
+  </si>
+  <si>
+    <t>Added Keywords in the meta-data</t>
+  </si>
+  <si>
+    <t>It would improve SEO</t>
+  </si>
+  <si>
+    <t>I didn't see a change in organic traffic</t>
+  </si>
 </sst>
 </file>
 
@@ -894,7 +960,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,6 +1018,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -991,13 +1065,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1045,10 +1120,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
@@ -1952,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2098,7 +2177,9 @@
       <c r="L5" s="23">
         <v>0</v>
       </c>
-      <c r="M5" s="24"/>
+      <c r="M5" s="24">
+        <v>45725</v>
+      </c>
       <c r="N5" s="14"/>
       <c r="O5" s="20"/>
     </row>
@@ -2119,7 +2200,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="18">
-        <f t="shared" ref="F6:F14" si="0">D6/E6</f>
+        <f t="shared" ref="F6:F11" si="0">D6/E6</f>
         <v>0.10256410256410256</v>
       </c>
       <c r="G6" s="19">
@@ -2141,7 +2222,9 @@
       <c r="L6" s="23">
         <v>0</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="24">
+        <v>45725</v>
+      </c>
       <c r="N6" s="14"/>
       <c r="O6" s="20"/>
     </row>
@@ -2184,9 +2267,13 @@
       <c r="L7" s="23">
         <v>0</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="24">
+        <v>45732</v>
+      </c>
       <c r="N7" s="14"/>
-      <c r="O7" s="20"/>
+      <c r="O7" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
@@ -2227,7 +2314,9 @@
       <c r="L8" s="23">
         <v>0</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="24">
+        <v>45725</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="20"/>
     </row>
@@ -2270,9 +2359,13 @@
       <c r="L9" s="23">
         <v>0</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="M9" s="24">
+        <v>45732</v>
+      </c>
       <c r="N9" s="14"/>
-      <c r="O9" s="20"/>
+      <c r="O9" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
@@ -2313,7 +2406,9 @@
       <c r="L10" s="23">
         <v>0</v>
       </c>
-      <c r="M10" s="14"/>
+      <c r="M10" s="24">
+        <v>45725</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="20"/>
     </row>
@@ -2356,7 +2451,9 @@
       <c r="L11" s="23">
         <v>0</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="24">
+        <v>45725</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="20"/>
     </row>
@@ -2398,9 +2495,15 @@
       <c r="L12" s="23">
         <v>0</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="20"/>
+      <c r="M12" s="24">
+        <v>45725</v>
+      </c>
+      <c r="N12" s="24">
+        <v>45732</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
@@ -2440,9 +2543,15 @@
       <c r="L13" s="23">
         <v>0</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="20"/>
+      <c r="M13" s="24">
+        <v>45725</v>
+      </c>
+      <c r="N13" s="24">
+        <v>45732</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
@@ -2482,9 +2591,15 @@
       <c r="L14" s="23">
         <v>0</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="20"/>
+      <c r="M14" s="24">
+        <v>45725</v>
+      </c>
+      <c r="N14" s="24">
+        <v>45732</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
@@ -3453,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3668,49 +3783,99 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:37" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="R4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="14"/>
+      <c r="W4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>280</v>
+      </c>
+      <c r="AA4" s="15">
+        <f>Y4/Z4</f>
+        <v>6.7857142857142852E-2</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="AC4" s="16">
+        <f>Y4*AB4</f>
+        <v>12.35</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="24">
+        <v>45725</v>
+      </c>
       <c r="AH4" s="14"/>
       <c r="AI4" s="13"/>
       <c r="AJ4">
         <f t="shared" ref="AJ4:AJ21" si="0">COUNTIF(B4:P4,"*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK4">
         <f>COUNTIF(R4:V4,"*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
@@ -4510,11 +4675,11 @@
       <c r="AI22" s="9"/>
       <c r="AJ22">
         <f>AVERAGE(AJ4:AJ21)</f>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AK22">
         <f>AVERAGE(AK4:AK21)</f>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
@@ -6016,10 +6181,13 @@
     <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{FC509E40-0562-4010-9879-46BC5B7EFF5B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6027,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6070,14 +6238,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
